--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H2">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.85845247947144</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N2">
-        <v>4.85845247947144</v>
+        <v>4.603615</v>
       </c>
       <c r="O2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q2">
-        <v>31.50212195732811</v>
+        <v>105.1263326890494</v>
       </c>
       <c r="R2">
-        <v>31.50212195732811</v>
+        <v>946.136994201445</v>
       </c>
       <c r="S2">
-        <v>0.4162344847483869</v>
+        <v>0.1444397970458735</v>
       </c>
       <c r="T2">
-        <v>0.4162344847483869</v>
+        <v>0.1444397970458735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H3">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.74698515815613</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N3">
-        <v>3.74698515815613</v>
+        <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q3">
-        <v>24.29538704418373</v>
+        <v>340.7068807503728</v>
       </c>
       <c r="R3">
-        <v>24.29538704418373</v>
+        <v>3066.361926753355</v>
       </c>
       <c r="S3">
-        <v>0.3210125947006575</v>
+        <v>0.4681189902560222</v>
       </c>
       <c r="T3">
-        <v>0.3210125947006575</v>
+        <v>0.4681189902560222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15829786012552</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H4">
-        <v>1.15829786012552</v>
+        <v>205.520443</v>
       </c>
       <c r="I4">
-        <v>0.13170172569099</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J4">
-        <v>0.13170172569099</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85845247947144</v>
+        <v>3.75909</v>
       </c>
       <c r="N4">
-        <v>4.85845247947144</v>
+        <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q4">
-        <v>5.627535110493296</v>
+        <v>257.52328069229</v>
       </c>
       <c r="R4">
-        <v>5.627535110493296</v>
+        <v>2317.70952623061</v>
       </c>
       <c r="S4">
-        <v>0.07435607608568552</v>
+        <v>0.3538277180067225</v>
       </c>
       <c r="T4">
-        <v>0.07435607608568552</v>
+        <v>0.3538277180067226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H5">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.74698515815613</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N5">
-        <v>3.74698515815613</v>
+        <v>4.603615</v>
       </c>
       <c r="O5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q5">
-        <v>4.340124890614328</v>
+        <v>1.885399781481666</v>
       </c>
       <c r="R5">
-        <v>4.340124890614328</v>
+        <v>16.968598033335</v>
       </c>
       <c r="S5">
-        <v>0.05734564960530441</v>
+        <v>0.002590471433956083</v>
       </c>
       <c r="T5">
-        <v>0.05734564960530441</v>
+        <v>0.002590471433956084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.15257653441344</v>
+        <v>1.228643</v>
       </c>
       <c r="H6">
-        <v>1.15257653441344</v>
+        <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J6">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.85845247947144</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N6">
-        <v>4.85845247947144</v>
+        <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q6">
-        <v>5.599738321401577</v>
+        <v>6.110445043451667</v>
       </c>
       <c r="R6">
-        <v>5.599738321401577</v>
+        <v>54.994005391065</v>
       </c>
       <c r="S6">
-        <v>0.07398879980502977</v>
+        <v>0.008395531541528398</v>
       </c>
       <c r="T6">
-        <v>0.07398879980502977</v>
+        <v>0.0083955315415284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.15257653441344</v>
+        <v>1.228643</v>
       </c>
       <c r="H7">
-        <v>1.15257653441344</v>
+        <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J7">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.74698515815613</v>
+        <v>3.75909</v>
       </c>
       <c r="N7">
-        <v>3.74698515815613</v>
+        <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q7">
-        <v>4.318687168086187</v>
+        <v>4.61857961487</v>
       </c>
       <c r="R7">
-        <v>4.318687168086187</v>
+        <v>41.56721653383</v>
       </c>
       <c r="S7">
-        <v>0.05706239505493581</v>
+        <v>0.006345762143013679</v>
       </c>
       <c r="T7">
-        <v>0.05706239505493581</v>
+        <v>0.00634576214301368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.462619</v>
+      </c>
+      <c r="I8">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J8">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.534538333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.603615</v>
+      </c>
+      <c r="O8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="P8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="Q8">
+        <v>1.771173863076111</v>
+      </c>
+      <c r="R8">
+        <v>15.940564767685</v>
+      </c>
+      <c r="S8">
+        <v>0.002433529133679346</v>
+      </c>
+      <c r="T8">
+        <v>0.002433529133679347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.462619</v>
+      </c>
+      <c r="I9">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J9">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.973328333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.919985</v>
+      </c>
+      <c r="O9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="P9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="Q9">
+        <v>5.740247060079446</v>
+      </c>
+      <c r="R9">
+        <v>51.662223540715</v>
+      </c>
+      <c r="S9">
+        <v>0.007886892837815249</v>
+      </c>
+      <c r="T9">
+        <v>0.007886892837815251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.462619</v>
+      </c>
+      <c r="I10">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J10">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.75909</v>
+      </c>
+      <c r="N10">
+        <v>11.27727</v>
+      </c>
+      <c r="O10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="P10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="Q10">
+        <v>4.338765485570001</v>
+      </c>
+      <c r="R10">
+        <v>39.04888937013</v>
+      </c>
+      <c r="S10">
+        <v>0.005961307601388927</v>
+      </c>
+      <c r="T10">
+        <v>0.005961307601388928</v>
       </c>
     </row>
   </sheetData>
